--- a/src/main/webapp/resources/files/exported/expenses.xlsx
+++ b/src/main/webapp/resources/files/exported/expenses.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Audi A4" r:id="rId3" sheetId="1"/>
+    <sheet name="Audi A4 B6 1.8T" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Pierwsze badanie techniczne w kraju.</t>
+  </si>
+  <si>
     <t>Polisa OC</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>2020-02-24</t>
   </si>
   <si>
+    <t xml:space="preserve">MTU OC+NNW </t>
+  </si>
+  <si>
     <t>Pompka spryskiwacza</t>
   </si>
   <si>
@@ -68,12 +74,18 @@
     <t>2020-03-02</t>
   </si>
   <si>
+    <t>Pompka spryskiwacza reflektorów</t>
+  </si>
+  <si>
     <t>Żarówki</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
+    <t>Żarówki świateł mijania Bosch Xenon Blue H7</t>
+  </si>
+  <si>
     <t>Rozrząd, olej, filtry</t>
   </si>
   <si>
@@ -83,34 +95,52 @@
     <t>2020-03-05</t>
   </si>
   <si>
+    <t>Zestaw rozrządu, pompa wody, pasek wielorowkowy, rolka napinacza paska, rolka prowadząca pasek, olej Castrol 5W30, filtr oleju, filtr kabinowy, płyn chłodniczy, zawór DV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Świece </t>
   </si>
   <si>
     <t>2020-03-06</t>
   </si>
   <si>
+    <t>Świece NGK PRF6Q</t>
+  </si>
+  <si>
     <t>Wycieraczki</t>
   </si>
   <si>
     <t>2020-03-10</t>
   </si>
   <si>
+    <t xml:space="preserve">Wymiana wycieraczek </t>
+  </si>
+  <si>
     <t>Intercooler BEX</t>
   </si>
   <si>
     <t>2020-04-06</t>
   </si>
   <si>
+    <t>Montaż drugiego intercoolera</t>
+  </si>
+  <si>
     <t>Czujnik ECT</t>
   </si>
   <si>
     <t>2020-04-09</t>
   </si>
   <si>
+    <t>Wymiana czujnika temperatury cieczy chłodzącej</t>
+  </si>
+  <si>
     <t>Katalizator sportowy</t>
   </si>
   <si>
     <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>Katalizator sportowy + montaż + złącze elastyczne + naprawa wydechu</t>
   </si>
   <si>
     <t>PB</t>
@@ -228,18 +258,18 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>105729.0</v>
@@ -254,18 +284,18 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
         <v>106000.0</v>
@@ -280,18 +310,18 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>106000.0</v>
@@ -306,18 +336,18 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>106190.0</v>
@@ -332,18 +362,18 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>106250.0</v>
@@ -358,18 +388,18 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>106404.0</v>
@@ -384,18 +414,18 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>106660.0</v>
@@ -410,18 +440,18 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
         <v>106660.0</v>
@@ -436,18 +466,18 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
         <v>106900.0</v>
@@ -462,18 +492,18 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
         <v>105638.0</v>
@@ -493,13 +523,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
         <v>105863.0</v>
@@ -519,13 +549,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
         <v>105987.0</v>
@@ -545,13 +575,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>106404.0</v>
@@ -571,13 +601,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
         <v>106663.0</v>

--- a/src/main/webapp/resources/files/exported/expenses.xlsx
+++ b/src/main/webapp/resources/files/exported/expenses.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Audi A4 B6 1.8T" r:id="rId3" sheetId="1"/>
+    <sheet name="Suzuki SX4" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Pierwsze badanie techniczne w kraju.</t>
-  </si>
-  <si>
     <t>Polisa OC</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>2020-02-24</t>
   </si>
   <si>
-    <t xml:space="preserve">MTU OC+NNW </t>
-  </si>
-  <si>
     <t>Pompka spryskiwacza</t>
   </si>
   <si>
@@ -74,18 +68,12 @@
     <t>2020-03-02</t>
   </si>
   <si>
-    <t>Pompka spryskiwacza reflektorów</t>
-  </si>
-  <si>
     <t>Żarówki</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Żarówki świateł mijania Bosch Xenon Blue H7</t>
-  </si>
-  <si>
     <t>Rozrząd, olej, filtry</t>
   </si>
   <si>
@@ -95,52 +83,34 @@
     <t>2020-03-05</t>
   </si>
   <si>
-    <t>Zestaw rozrządu, pompa wody, pasek wielorowkowy, rolka napinacza paska, rolka prowadząca pasek, olej Castrol 5W30, filtr oleju, filtr kabinowy, płyn chłodniczy, zawór DV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Świece </t>
   </si>
   <si>
     <t>2020-03-06</t>
   </si>
   <si>
-    <t>Świece NGK PRF6Q</t>
-  </si>
-  <si>
     <t>Wycieraczki</t>
   </si>
   <si>
     <t>2020-03-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Wymiana wycieraczek </t>
-  </si>
-  <si>
     <t>Intercooler BEX</t>
   </si>
   <si>
     <t>2020-04-06</t>
   </si>
   <si>
-    <t>Montaż drugiego intercoolera</t>
-  </si>
-  <si>
     <t>Czujnik ECT</t>
   </si>
   <si>
     <t>2020-04-09</t>
   </si>
   <si>
-    <t>Wymiana czujnika temperatury cieczy chłodzącej</t>
-  </si>
-  <si>
     <t>Katalizator sportowy</t>
   </si>
   <si>
     <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>Katalizator sportowy + montaż + złącze elastyczne + naprawa wydechu</t>
   </si>
   <si>
     <t>PB</t>
@@ -258,18 +228,18 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>105729.0</v>
@@ -284,18 +254,18 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" t="n">
         <v>106000.0</v>
@@ -310,18 +280,18 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>106000.0</v>
@@ -336,18 +306,18 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
         <v>106190.0</v>
@@ -362,18 +332,18 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>106250.0</v>
@@ -388,18 +358,18 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>106404.0</v>
@@ -414,18 +384,18 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>106660.0</v>
@@ -440,18 +410,18 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>106660.0</v>
@@ -466,18 +436,18 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>106900.0</v>
@@ -492,18 +462,18 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>105638.0</v>
@@ -523,13 +493,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
         <v>105863.0</v>
@@ -549,13 +519,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
         <v>105987.0</v>
@@ -575,13 +545,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>106404.0</v>
@@ -601,13 +571,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n">
         <v>106663.0</v>

--- a/src/main/webapp/resources/files/exported/expenses.xlsx
+++ b/src/main/webapp/resources/files/exported/expenses.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Audi A4 B5" r:id="rId3" sheetId="1"/>
+    <sheet name="Audi A4 B6 1.8T" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -38,52 +38,109 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Świece</t>
+    <t>Badanie techniczne</t>
+  </si>
+  <si>
+    <t>MOT</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pierwsze badanie techniczne w kraju.</t>
+  </si>
+  <si>
+    <t>Polisa OC</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTU OC+NNW </t>
+  </si>
+  <si>
+    <t>Pompka spryskiwacza</t>
+  </si>
+  <si>
+    <t>Repairs</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>Pompka spryskiwacza reflektorów</t>
+  </si>
+  <si>
+    <t>Żarówki</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Żarówki świateł mijania Bosch Xenon Blue H7</t>
+  </si>
+  <si>
+    <t>Rozrząd, olej, filtry</t>
   </si>
   <si>
     <t>Exploitation</t>
   </si>
   <si>
-    <t>2016-12-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Wymiana świec</t>
-  </si>
-  <si>
-    <t>Osłona silnika</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>2016-12-17</t>
-  </si>
-  <si>
-    <t>Osłona silnika + montaż</t>
-  </si>
-  <si>
-    <t>Badanie techniczne</t>
-  </si>
-  <si>
-    <t>MOT</t>
-  </si>
-  <si>
-    <t>2017-12-27</t>
-  </si>
-  <si>
-    <t>Ubezpieczenie OC</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>2017-12-15</t>
-  </si>
-  <si>
-    <t>PZU</t>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>Zestaw rozrządu, pompa wody, pasek wielorowkowy, rolka napinacza paska, rolka prowadząca pasek, olej Castrol 5W30, filtr oleju, filtr kabinowy, płyn chłodniczy, zawór DV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Świece </t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>Świece NGK PRF6Q</t>
+  </si>
+  <si>
+    <t>Wycieraczki</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wymiana wycieraczek </t>
+  </si>
+  <si>
+    <t>Intercooler BEX</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>Montaż drugiego intercoolera</t>
+  </si>
+  <si>
+    <t>Czujnik ECT</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>Wymiana czujnika temperatury cieczy chłodzącej</t>
+  </si>
+  <si>
+    <t>Katalizator sportowy</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>Katalizator sportowy + montaż + złącze elastyczne + naprawa wydechu</t>
   </si>
   <si>
     <t>PB</t>
@@ -92,16 +149,16 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>2016-12-20</t>
-  </si>
-  <si>
-    <t>LPG</t>
-  </si>
-  <si>
-    <t>2016-12-27</t>
-  </si>
-  <si>
-    <t>2016-12-03</t>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
   </si>
 </sst>
 </file>
@@ -146,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -189,10 +246,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>221768.0</v>
+        <v>105729.0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.0</v>
+        <v>99.98999786376953</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -215,10 +272,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>223848.0</v>
+        <v>105729.0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.0</v>
+        <v>706.0</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -241,10 +298,10 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>237720.0</v>
+        <v>106000.0</v>
       </c>
       <c r="E4" t="n">
-        <v>162.0</v>
+        <v>69.52999877929688</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -253,24 +310,24 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>228391.0</v>
+        <v>106000.0</v>
       </c>
       <c r="E5" t="n">
-        <v>510.0</v>
+        <v>91.69999694824219</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -293,96 +350,278 @@
         <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>220536.0</v>
+        <v>106190.0</v>
       </c>
       <c r="E6" t="n">
-        <v>45.70000076293945</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30.0</v>
+        <v>1400.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>220942.0</v>
+        <v>106250.0</v>
       </c>
       <c r="E7" t="n">
-        <v>81.76000213623047</v>
-      </c>
-      <c r="F7" t="n">
-        <v>39.310001373291016</v>
-      </c>
-      <c r="G7" t="n">
-        <v>49.0</v>
+        <v>179.9600067138672</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>220942.0</v>
+        <v>106404.0</v>
       </c>
       <c r="E8" t="n">
-        <v>21.100000381469727</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>27.0</v>
+        <v>44.79999923706055</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>221318.0</v>
+        <v>106660.0</v>
       </c>
       <c r="E9" t="n">
-        <v>80.9800033569336</v>
-      </c>
-      <c r="F9" t="n">
-        <v>38.02000045776367</v>
-      </c>
-      <c r="G9" t="n">
-        <v>49.0</v>
+        <v>650.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
       </c>
       <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>106660.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="n">
+        <v>106900.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1175.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="n">
+        <v>105638.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>141.4199981689453</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30.09000015258789</v>
+      </c>
+      <c r="G12" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="n">
+        <v>105863.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100.7699966430664</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21.350000381469727</v>
+      </c>
+      <c r="G13" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="n">
+        <v>105987.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>150.25999450683594</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31.239999771118164</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>106404.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>54.290000915527344</v>
+      </c>
+      <c r="G15" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="n">
+        <v>106663.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>112.30999755859375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27.729999542236328</v>
+      </c>
+      <c r="G16" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/webapp/resources/files/exported/expenses.xlsx
+++ b/src/main/webapp/resources/files/exported/expenses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Pierwsze badanie techniczne w kraju.</t>
-  </si>
-  <si>
     <t>Polisa OC</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>2020-02-24</t>
   </si>
   <si>
-    <t xml:space="preserve">MTU OC+NNW </t>
-  </si>
-  <si>
     <t>Pompka spryskiwacza</t>
   </si>
   <si>
@@ -74,18 +68,12 @@
     <t>2020-03-02</t>
   </si>
   <si>
-    <t>Pompka spryskiwacza reflektorów</t>
-  </si>
-  <si>
     <t>Żarówki</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Żarówki świateł mijania Bosch Xenon Blue H7</t>
-  </si>
-  <si>
     <t>Rozrząd, olej, filtry</t>
   </si>
   <si>
@@ -95,52 +83,61 @@
     <t>2020-03-05</t>
   </si>
   <si>
-    <t>Zestaw rozrządu, pompa wody, pasek wielorowkowy, rolka napinacza paska, rolka prowadząca pasek, olej Castrol 5W30, filtr oleju, filtr kabinowy, płyn chłodniczy, zawór DV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Świece </t>
   </si>
   <si>
     <t>2020-03-06</t>
   </si>
   <si>
-    <t>Świece NGK PRF6Q</t>
-  </si>
-  <si>
     <t>Wycieraczki</t>
   </si>
   <si>
     <t>2020-03-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Wymiana wycieraczek </t>
-  </si>
-  <si>
     <t>Intercooler BEX</t>
   </si>
   <si>
     <t>2020-04-06</t>
   </si>
   <si>
-    <t>Montaż drugiego intercoolera</t>
-  </si>
-  <si>
     <t>Czujnik ECT</t>
   </si>
   <si>
     <t>2020-04-09</t>
   </si>
   <si>
-    <t>Wymiana czujnika temperatury cieczy chłodzącej</t>
-  </si>
-  <si>
     <t>Katalizator sportowy</t>
   </si>
   <si>
     <t>2020-04-28</t>
   </si>
   <si>
-    <t>Katalizator sportowy + montaż + złącze elastyczne + naprawa wydechu</t>
+    <t>Chip tuning</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-Sport Opole. Zwiększenie mocy + montaż wtryskiwaczy + wyłączenie drugiej sondy lambda. </t>
+  </si>
+  <si>
+    <t>Tarcze i klocki hamulcowe przód</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>Tarcze 312mm + klocki + jarzma + zaciski (niezamontowane)</t>
+  </si>
+  <si>
+    <t>Sprzęgło, uszczelnienie silnika i skrzyni, oleje</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>- Sprzęgło komplet z dwumasą LUK 1.9 TDI AWX&lt;br&gt;- Uszczelnienie, czyszczenie miski olejowej&lt;br&gt;- Uszczelka pokrywy zaworów&lt;br&gt;- Olej w skrzyni RAVENOL TSG 75W90&lt;br&gt;- Olej w moście RAVENOL TGO 75W90&lt;br&gt;- Simering w skrzyni&lt;br&gt;- Osłona przegubu prawego wewnętrznego tył OEM&lt;br&gt;- Tarcze i klocki hamulcowe tył FEBI + TRW&lt;br&gt;- Śruby jarzm hamulcowych tył&lt;br&gt;- Czyszczenie i smarowanie przegubu prawego wewnętrznego tył&lt;br&gt;- Odpływ oleju z turbo</t>
   </si>
   <si>
     <t>PB</t>
@@ -159,6 +156,15 @@
   </si>
   <si>
     <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -258,18 +264,18 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>105729.0</v>
@@ -284,18 +290,18 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" t="n">
         <v>106000.0</v>
@@ -310,18 +316,18 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>106000.0</v>
@@ -336,18 +342,18 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
         <v>106190.0</v>
@@ -362,18 +368,18 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>106250.0</v>
@@ -388,18 +394,18 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>106404.0</v>
@@ -414,18 +420,18 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>106660.0</v>
@@ -440,18 +446,18 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>106660.0</v>
@@ -466,18 +472,18 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>106900.0</v>
@@ -492,108 +498,108 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
-        <v>105638.0</v>
+        <v>107300.0</v>
       </c>
       <c r="E12" t="n">
-        <v>141.4199981689453</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30.09000015258789</v>
-      </c>
-      <c r="G12" t="n">
-        <v>33.0</v>
+        <v>1480.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>105863.0</v>
+        <v>107350.0</v>
       </c>
       <c r="E13" t="n">
-        <v>100.7699966430664</v>
-      </c>
-      <c r="F13" t="n">
-        <v>21.350000381469727</v>
-      </c>
-      <c r="G13" t="n">
-        <v>33.0</v>
+        <v>360.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>105987.0</v>
+        <v>107700.0</v>
       </c>
       <c r="E14" t="n">
-        <v>150.25999450683594</v>
-      </c>
-      <c r="F14" t="n">
-        <v>31.239999771118164</v>
-      </c>
-      <c r="G14" t="n">
-        <v>57.0</v>
+        <v>4220.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" t="n">
-        <v>106404.0</v>
+        <v>105638.0</v>
       </c>
       <c r="E15" t="n">
-        <v>256.25</v>
+        <v>141.4199981689453</v>
       </c>
       <c r="F15" t="n">
-        <v>54.290000915527344</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="G15" t="n">
-        <v>66.0</v>
+        <v>33.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -601,27 +607,183 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="n">
+        <v>105863.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100.7699966430664</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21.350000381469727</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="n">
+        <v>105987.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>150.25999450683594</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31.239999771118164</v>
+      </c>
+      <c r="G17" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>106404.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>54.290000915527344</v>
+      </c>
+      <c r="G18" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="n">
+        <v>106663.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>112.30999755859375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27.729999542236328</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="n">
-        <v>106663.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>112.30999755859375</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27.729999542236328</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="D20" t="n">
+        <v>107116.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>203.3000030517578</v>
+      </c>
+      <c r="F20" t="n">
+        <v>53.63999938964844</v>
+      </c>
+      <c r="G20" t="n">
         <v>66.0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="n">
+        <v>107661.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>222.8300018310547</v>
+      </c>
+      <c r="F21" t="n">
+        <v>57.43000030517578</v>
+      </c>
+      <c r="G21" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>108242.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>233.14999389648438</v>
+      </c>
+      <c r="F22" t="n">
+        <v>55.380001068115234</v>
+      </c>
+      <c r="G22" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/webapp/resources/files/exported/expenses.xlsx
+++ b/src/main/webapp/resources/files/exported/expenses.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Audi A4 B6 1.8T" r:id="rId3" sheetId="1"/>
+    <sheet name="Audi Test" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -140,6 +140,33 @@
     <t>- Sprzęgło komplet z dwumasą LUK 1.9 TDI AWX&lt;br&gt;- Uszczelnienie, czyszczenie miski olejowej&lt;br&gt;- Uszczelka pokrywy zaworów&lt;br&gt;- Olej w skrzyni RAVENOL TSG 75W90&lt;br&gt;- Olej w moście RAVENOL TGO 75W90&lt;br&gt;- Simering w skrzyni&lt;br&gt;- Osłona przegubu prawego wewnętrznego tył OEM&lt;br&gt;- Tarcze i klocki hamulcowe tył FEBI + TRW&lt;br&gt;- Śruby jarzm hamulcowych tył&lt;br&gt;- Czyszczenie i smarowanie przegubu prawego wewnętrznego tył&lt;br&gt;- Odpływ oleju z turbo</t>
   </si>
   <si>
+    <t>Przeguby wewnętrzne przód</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>Przeguby wewnętrzne SKF + montaż</t>
+  </si>
+  <si>
+    <t>Przegląd klimatyzacji</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>Uzupełniono 90g czynnika</t>
+  </si>
+  <si>
+    <t>Podpora wału</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>Podpora wału z łożyskiem FAG + wymiana</t>
+  </si>
+  <si>
     <t>PB</t>
   </si>
   <si>
@@ -165,6 +192,27 @@
   </si>
   <si>
     <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
   </si>
 </sst>
 </file>
@@ -209,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -584,100 +632,100 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="n">
+        <v>108800.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="n">
-        <v>105638.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>141.4199981689453</v>
-      </c>
-      <c r="F15" t="n">
-        <v>30.09000015258789</v>
-      </c>
-      <c r="G15" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>105863.0</v>
+        <v>109000.0</v>
       </c>
       <c r="E16" t="n">
-        <v>100.7699966430664</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21.350000381469727</v>
-      </c>
-      <c r="G16" t="n">
-        <v>33.0</v>
+        <v>79.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>105987.0</v>
+        <v>109500.0</v>
       </c>
       <c r="E17" t="n">
-        <v>150.25999450683594</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31.239999771118164</v>
-      </c>
-      <c r="G17" t="n">
-        <v>57.0</v>
+        <v>450.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
-        <v>106404.0</v>
+        <v>105638.0</v>
       </c>
       <c r="E18" t="n">
-        <v>256.25</v>
+        <v>141.4199981689453</v>
       </c>
       <c r="F18" t="n">
-        <v>54.290000915527344</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="G18" t="n">
-        <v>66.0</v>
+        <v>33.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -685,25 +733,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D19" t="n">
-        <v>106663.0</v>
+        <v>105863.0</v>
       </c>
       <c r="E19" t="n">
-        <v>112.30999755859375</v>
+        <v>100.7699966430664</v>
       </c>
       <c r="F19" t="n">
-        <v>27.729999542236328</v>
+        <v>21.350000381469727</v>
       </c>
       <c r="G19" t="n">
-        <v>66.0</v>
+        <v>33.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -711,25 +759,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D20" t="n">
-        <v>107116.0</v>
+        <v>105987.0</v>
       </c>
       <c r="E20" t="n">
-        <v>203.3000030517578</v>
+        <v>150.25999450683594</v>
       </c>
       <c r="F20" t="n">
-        <v>53.63999938964844</v>
+        <v>31.239999771118164</v>
       </c>
       <c r="G20" t="n">
-        <v>66.0</v>
+        <v>57.0</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -737,22 +785,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>107661.0</v>
+        <v>106404.0</v>
       </c>
       <c r="E21" t="n">
-        <v>222.8300018310547</v>
+        <v>256.25</v>
       </c>
       <c r="F21" t="n">
-        <v>57.43000030517578</v>
+        <v>54.290000915527344</v>
       </c>
       <c r="G21" t="n">
         <v>66.0</v>
@@ -763,27 +811,313 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D22" t="n">
+        <v>106663.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>112.30999755859375</v>
+      </c>
+      <c r="F22" t="n">
+        <v>27.729999542236328</v>
+      </c>
+      <c r="G22" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="n">
+        <v>107116.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>203.3000030517578</v>
+      </c>
+      <c r="F23" t="n">
+        <v>53.63999938964844</v>
+      </c>
+      <c r="G23" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="n">
+        <v>107661.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>222.8300018310547</v>
+      </c>
+      <c r="F24" t="n">
+        <v>57.43000030517578</v>
+      </c>
+      <c r="G24" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="n">
         <v>108242.0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E25" t="n">
         <v>233.14999389648438</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F25" t="n">
         <v>55.380001068115234</v>
       </c>
-      <c r="G22" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G25" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="n">
+        <v>108686.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>203.3000030517578</v>
+      </c>
+      <c r="F26" t="n">
+        <v>47.279998779296875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>109242.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>225.3000030517578</v>
+      </c>
+      <c r="F27" t="n">
+        <v>50.290000915527344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="n">
+        <v>109761.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>225.72000122070312</v>
+      </c>
+      <c r="F28" t="n">
+        <v>52.0099983215332</v>
+      </c>
+      <c r="G28" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="n">
+        <v>110194.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>188.85000610351562</v>
+      </c>
+      <c r="F29" t="n">
+        <v>42.060001373291016</v>
+      </c>
+      <c r="G29" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="n">
+        <v>110635.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>187.38999938964844</v>
+      </c>
+      <c r="F30" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="G30" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="n">
+        <v>111011.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>160.1699981689453</v>
+      </c>
+      <c r="F31" t="n">
+        <v>36.9900016784668</v>
+      </c>
+      <c r="G31" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="n">
+        <v>111431.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>184.0399932861328</v>
+      </c>
+      <c r="F32" t="n">
+        <v>41.08000183105469</v>
+      </c>
+      <c r="G32" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="n">
+        <v>111669.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>114.08999633789062</v>
+      </c>
+      <c r="F33" t="n">
+        <v>24.1200008392334</v>
+      </c>
+      <c r="G33" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H33" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/webapp/resources/files/exported/expenses.xlsx
+++ b/src/main/webapp/resources/files/exported/expenses.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Audi Test" r:id="rId3" sheetId="1"/>
+    <sheet name="Audi A4 B6" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -119,54 +119,36 @@
     <t>2020-05-12</t>
   </si>
   <si>
-    <t xml:space="preserve">K-Sport Opole. Zwiększenie mocy + montaż wtryskiwaczy + wyłączenie drugiej sondy lambda. </t>
-  </si>
-  <si>
     <t>Tarcze i klocki hamulcowe przód</t>
   </si>
   <si>
     <t>2020-05-15</t>
   </si>
   <si>
-    <t>Tarcze 312mm + klocki + jarzma + zaciski (niezamontowane)</t>
-  </si>
-  <si>
     <t>Sprzęgło, uszczelnienie silnika i skrzyni, oleje</t>
   </si>
   <si>
     <t>2020-06-16</t>
   </si>
   <si>
-    <t>- Sprzęgło komplet z dwumasą LUK 1.9 TDI AWX&lt;br&gt;- Uszczelnienie, czyszczenie miski olejowej&lt;br&gt;- Uszczelka pokrywy zaworów&lt;br&gt;- Olej w skrzyni RAVENOL TSG 75W90&lt;br&gt;- Olej w moście RAVENOL TGO 75W90&lt;br&gt;- Simering w skrzyni&lt;br&gt;- Osłona przegubu prawego wewnętrznego tył OEM&lt;br&gt;- Tarcze i klocki hamulcowe tył FEBI + TRW&lt;br&gt;- Śruby jarzm hamulcowych tył&lt;br&gt;- Czyszczenie i smarowanie przegubu prawego wewnętrznego tył&lt;br&gt;- Odpływ oleju z turbo</t>
-  </si>
-  <si>
     <t>Przeguby wewnętrzne przód</t>
   </si>
   <si>
     <t>2020-07-21</t>
   </si>
   <si>
-    <t>Przeguby wewnętrzne SKF + montaż</t>
-  </si>
-  <si>
     <t>Przegląd klimatyzacji</t>
   </si>
   <si>
     <t>2020-07-27</t>
   </si>
   <si>
-    <t>Uzupełniono 90g czynnika</t>
-  </si>
-  <si>
     <t>Podpora wału</t>
   </si>
   <si>
     <t>2020-08-13</t>
   </si>
   <si>
-    <t>Podpora wału z łożyskiem FAG + wymiana</t>
-  </si>
-  <si>
     <t>PB</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
   </si>
   <si>
     <t>2020-09-15</t>
-  </si>
-  <si>
-    <t>2020-09-24</t>
   </si>
 </sst>
 </file>
@@ -257,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,18 +551,18 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
         <v>107350.0</v>
@@ -598,18 +577,18 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
         <v>107700.0</v>
@@ -624,18 +603,18 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
         <v>108800.0</v>
@@ -650,18 +629,18 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
         <v>109000.0</v>
@@ -676,18 +655,18 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
         <v>109500.0</v>
@@ -702,18 +681,18 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18" t="n">
         <v>105638.0</v>
@@ -733,13 +712,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D19" t="n">
         <v>105863.0</v>
@@ -759,13 +738,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" t="n">
         <v>105987.0</v>
@@ -785,10 +764,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -811,13 +790,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>106663.0</v>
@@ -837,13 +816,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
       </c>
       <c r="D23" t="n">
         <v>107116.0</v>
@@ -863,13 +842,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
       </c>
       <c r="D24" t="n">
         <v>107661.0</v>
@@ -889,13 +868,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D25" t="n">
         <v>108242.0</v>
@@ -915,13 +894,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D26" t="n">
         <v>108686.0</v>
@@ -941,13 +920,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D27" t="n">
         <v>109242.0</v>
@@ -967,13 +946,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D28" t="n">
         <v>109761.0</v>
@@ -993,13 +972,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D29" t="n">
         <v>110194.0</v>
@@ -1019,13 +998,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D30" t="n">
         <v>110635.0</v>
@@ -1045,13 +1024,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D31" t="n">
         <v>111011.0</v>
@@ -1066,58 +1045,6 @@
         <v>66.0</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="n">
-        <v>111431.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>184.0399932861328</v>
-      </c>
-      <c r="F32" t="n">
-        <v>41.08000183105469</v>
-      </c>
-      <c r="G32" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="n">
-        <v>111669.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>114.08999633789062</v>
-      </c>
-      <c r="F33" t="n">
-        <v>24.1200008392334</v>
-      </c>
-      <c r="G33" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="H33" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/webapp/resources/files/exported/expenses.xlsx
+++ b/src/main/webapp/resources/files/exported/expenses.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Audi A4 B6" r:id="rId3" sheetId="1"/>
+    <sheet name="Audi A4 B6 1.8T" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,9 @@
     <t>2020-03-05</t>
   </si>
   <si>
+    <t>Zestaw rozrządu + pompa - 422 zł&lt;br&gt;Pasek wielorowkowy - 59 zł&lt;br&gt;Rolka napinacza paska - 52 zł&lt;br&gt;Rolka prowadząca pasek - 126 zł&lt;br&gt;Filtr oleju - 49 zł&lt;br&gt;Olej Castrol 5W30 - 139 zł&lt;br&gt;Płyn chłodniczy - 40 zł&lt;br&gt;Filtr kabinowy - 39 zł&lt;br&gt;Zawór DV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Świece </t>
   </si>
   <si>
@@ -119,36 +122,162 @@
     <t>2020-05-12</t>
   </si>
   <si>
+    <t xml:space="preserve">K-Sport Opole. Zwiększenie mocy + montaż wtryskiwaczy + wyłączenie drugiej sondy lambda. </t>
+  </si>
+  <si>
     <t>Tarcze i klocki hamulcowe przód</t>
   </si>
   <si>
     <t>2020-05-15</t>
   </si>
   <si>
+    <t>Tarcze 312mm + klocki + jarzma + zaciski (niezamontowane)</t>
+  </si>
+  <si>
     <t>Sprzęgło, uszczelnienie silnika i skrzyni, oleje</t>
   </si>
   <si>
     <t>2020-06-16</t>
   </si>
   <si>
+    <t>- Sprzęgło komplet z dwumasą LUK 1.9 TDI AWX&lt;br&gt;- Uszczelnienie, czyszczenie miski olejowej&lt;br&gt;- Uszczelka pokrywy zaworów&lt;br&gt;- Olej w skrzyni RAVENOL TSG 75W90&lt;br&gt;- Olej w moście RAVENOL TGO 75W90&lt;br&gt;- Simering w skrzyni&lt;br&gt;- Osłona przegubu prawego wewnętrznego tył OEM&lt;br&gt;- Tarcze i klocki hamulcowe tył FEBI + TRW&lt;br&gt;- Śruby jarzm hamulcowych tył&lt;br&gt;- Czyszczenie i smarowanie przegubu prawego wewnętrznego tył&lt;br&gt;- Odpływ oleju z turbo</t>
+  </si>
+  <si>
     <t>Przeguby wewnętrzne przód</t>
   </si>
   <si>
     <t>2020-07-21</t>
   </si>
   <si>
+    <t>Przeguby wewnętrzne SKF + montaż</t>
+  </si>
+  <si>
     <t>Przegląd klimatyzacji</t>
   </si>
   <si>
     <t>2020-07-27</t>
   </si>
   <si>
+    <t>Uzupełniono 90g czynnika</t>
+  </si>
+  <si>
     <t>Podpora wału</t>
   </si>
   <si>
     <t>2020-08-13</t>
   </si>
   <si>
+    <t>Podpora wału z łożyskiem FAG + wymiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wymiana sprzęgła, naprawa tłumika </t>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>- Tarcza sprzęgła z tłumikami drgań LUK - 1.8T BFB&lt;br&gt;- Naprawa mocowania tłumika</t>
+  </si>
+  <si>
+    <t>Powłoka ceramiczna</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>- Dokładne mycie samochodu&lt;br&gt;- Korekta lakieru&lt;br&gt;- Zabezpieczenie plastików preparatem Owatrol Polytrol&lt;br&gt;- Powłoka ceramiczna Aqua Coating One</t>
+  </si>
+  <si>
+    <t>Opony całoroczne, nowy płyn hamulcowy</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>Opony całoroczne Hankook Kinergy 4S2 2020 - 990 zł&lt;br&gt;Wymiana opon - 110 zł&lt;br&gt;Płyn hamulcowy DOT4 - 56,61 zł&lt;br&gt;Wymiana płynu hamulcowego - 120,54 zł</t>
+  </si>
+  <si>
+    <t>Zawieszenie przednie, nadkole, konserwacja</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>- Komplet regenerowanych wahaczy przód OEM Audi (Regum.pl) - 945 zł&lt;br&gt;- Komplet śrub Master Sports - 85 zł&lt;br&gt;- Wymiana - 770 zł&lt;br&gt;- Konserwacja wnęk przód - 150zł&lt;br&gt;- Nadkole prawe przednie - 85 zł&lt;br&gt;- Geometria kół - 150zł</t>
+  </si>
+  <si>
+    <t>Tempomat + FIS, nowy kluczyk</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>- Manetka tempomatu - 40 zł&lt;br&gt;- Manetka FIS - 40 zł&lt;br&gt;- Osłona kolumny kierownicy - 50 zł&lt;br&gt;- Montaż + kodowanie - 150 zł&lt;br&gt;- Kluczyk + kodowanie - 300zł</t>
+  </si>
+  <si>
+    <t>Akumulator Exide Premium</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Siłownik schowka</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>Spryskiwacze mgiełkowe</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>OEM VW</t>
+  </si>
+  <si>
+    <t>Silniczek klapy bagażnika</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>Olej, filtr oleju, filtr powietrza</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>- Olej Valvoline Synpower 5W40 - 124 zł&lt;br&gt;- Filtr oleju Filtron OP 526/6 - 31 zł&lt;br&gt;- Filtr powietrza Filtron AP 179/2 - 44 zł&lt;br&gt;- Wymiana oleju - 60 zł</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>mtu24&lt;br&gt;- Ubezpieczenie OC - 525 zł&lt;br&gt;- Assistance - 15 zł&lt;br&gt;- NNW - 66 zł</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>Reflektory DEPO</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>Instalacja LPG</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>- Reduktor Magic III Power&lt;br&gt;- Wtryski STAG AC-W031 BFC&lt;br&gt;- Sterownik KME JET eco</t>
+  </si>
+  <si>
     <t>PB</t>
   </si>
   <si>
@@ -192,6 +321,66 @@
   </si>
   <si>
     <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
   </si>
 </sst>
 </file>
@@ -236,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -395,18 +584,18 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>106250.0</v>
@@ -426,13 +615,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>106404.0</v>
@@ -452,13 +641,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>106660.0</v>
@@ -478,13 +667,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>106660.0</v>
@@ -504,13 +693,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>106900.0</v>
@@ -530,13 +719,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>107300.0</v>
@@ -551,18 +740,18 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
         <v>107350.0</v>
@@ -577,18 +766,18 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
         <v>107700.0</v>
@@ -603,18 +792,18 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
         <v>108800.0</v>
@@ -629,18 +818,18 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D16" t="n">
         <v>109000.0</v>
@@ -655,18 +844,18 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>109500.0</v>
@@ -681,370 +870,1332 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
-        <v>105638.0</v>
+        <v>112000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>141.4199981689453</v>
-      </c>
-      <c r="F18" t="n">
-        <v>30.09000015258789</v>
-      </c>
-      <c r="G18" t="n">
-        <v>33.0</v>
+        <v>480.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D19" t="n">
-        <v>105863.0</v>
+        <v>112800.0</v>
       </c>
       <c r="E19" t="n">
-        <v>100.7699966430664</v>
-      </c>
-      <c r="F19" t="n">
-        <v>21.350000381469727</v>
-      </c>
-      <c r="G19" t="n">
-        <v>33.0</v>
+        <v>800.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
-        <v>105987.0</v>
+        <v>112980.0</v>
       </c>
       <c r="E20" t="n">
-        <v>150.25999450683594</v>
-      </c>
-      <c r="F20" t="n">
-        <v>31.239999771118164</v>
-      </c>
-      <c r="G20" t="n">
-        <v>57.0</v>
+        <v>1277.1500244140625</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D21" t="n">
-        <v>106404.0</v>
+        <v>113000.0</v>
       </c>
       <c r="E21" t="n">
-        <v>256.25</v>
-      </c>
-      <c r="F21" t="n">
-        <v>54.290000915527344</v>
-      </c>
-      <c r="G21" t="n">
-        <v>66.0</v>
+        <v>2185.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D22" t="n">
-        <v>106663.0</v>
+        <v>113230.0</v>
       </c>
       <c r="E22" t="n">
-        <v>112.30999755859375</v>
-      </c>
-      <c r="F22" t="n">
-        <v>27.729999542236328</v>
-      </c>
-      <c r="G22" t="n">
-        <v>66.0</v>
+        <v>600.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D23" t="n">
-        <v>107116.0</v>
+        <v>113350.0</v>
       </c>
       <c r="E23" t="n">
-        <v>203.3000030517578</v>
-      </c>
-      <c r="F23" t="n">
-        <v>53.63999938964844</v>
-      </c>
-      <c r="G23" t="n">
-        <v>66.0</v>
+        <v>329.989990234375</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D24" t="n">
-        <v>107661.0</v>
+        <v>113350.0</v>
       </c>
       <c r="E24" t="n">
-        <v>222.8300018310547</v>
-      </c>
-      <c r="F24" t="n">
-        <v>57.43000030517578</v>
-      </c>
-      <c r="G24" t="n">
-        <v>66.0</v>
+        <v>80.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D25" t="n">
-        <v>108242.0</v>
+        <v>113500.0</v>
       </c>
       <c r="E25" t="n">
-        <v>233.14999389648438</v>
-      </c>
-      <c r="F25" t="n">
-        <v>55.380001068115234</v>
-      </c>
-      <c r="G25" t="n">
-        <v>66.0</v>
+        <v>99.98999786376953</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D26" t="n">
-        <v>108686.0</v>
+        <v>115550.0</v>
       </c>
       <c r="E26" t="n">
-        <v>203.3000030517578</v>
-      </c>
-      <c r="F26" t="n">
-        <v>47.279998779296875</v>
-      </c>
-      <c r="G26" t="n">
-        <v>66.0</v>
+        <v>40.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D27" t="n">
-        <v>109242.0</v>
+        <v>116100.0</v>
       </c>
       <c r="E27" t="n">
-        <v>225.3000030517578</v>
-      </c>
-      <c r="F27" t="n">
-        <v>50.290000915527344</v>
-      </c>
-      <c r="G27" t="n">
-        <v>66.0</v>
+        <v>260.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D28" t="n">
-        <v>109761.0</v>
+        <v>116500.0</v>
       </c>
       <c r="E28" t="n">
-        <v>225.72000122070312</v>
-      </c>
-      <c r="F28" t="n">
-        <v>52.0099983215332</v>
-      </c>
-      <c r="G28" t="n">
-        <v>66.0</v>
+        <v>606.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D29" t="n">
-        <v>110194.0</v>
+        <v>116506.0</v>
       </c>
       <c r="E29" t="n">
-        <v>188.85000610351562</v>
-      </c>
-      <c r="F29" t="n">
-        <v>42.060001373291016</v>
-      </c>
-      <c r="G29" t="n">
-        <v>66.0</v>
+        <v>98.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>110635.0</v>
+        <v>118150.0</v>
       </c>
       <c r="E30" t="n">
-        <v>187.38999938964844</v>
-      </c>
-      <c r="F30" t="n">
-        <v>42.29999923706055</v>
-      </c>
-      <c r="G30" t="n">
-        <v>66.0</v>
+        <v>486.989990234375</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="n">
+        <v>118350.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="n">
+        <v>105638.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>141.4199981689453</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30.09000015258789</v>
+      </c>
+      <c r="G32" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="n">
+        <v>105863.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100.7699966430664</v>
+      </c>
+      <c r="F33" t="n">
+        <v>21.350000381469727</v>
+      </c>
+      <c r="G33" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="n">
+        <v>105987.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>150.25999450683594</v>
+      </c>
+      <c r="F34" t="n">
+        <v>31.239999771118164</v>
+      </c>
+      <c r="G34" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="n">
+        <v>106404.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>54.290000915527344</v>
+      </c>
+      <c r="G35" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106663.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>112.30999755859375</v>
+      </c>
+      <c r="F36" t="n">
+        <v>27.729999542236328</v>
+      </c>
+      <c r="G36" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="n">
+        <v>107116.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>203.3000030517578</v>
+      </c>
+      <c r="F37" t="n">
+        <v>53.63999938964844</v>
+      </c>
+      <c r="G37" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="n">
+        <v>107661.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>222.8300018310547</v>
+      </c>
+      <c r="F38" t="n">
+        <v>57.43000030517578</v>
+      </c>
+      <c r="G38" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="n">
+        <v>108242.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>233.14999389648438</v>
+      </c>
+      <c r="F39" t="n">
+        <v>55.380001068115234</v>
+      </c>
+      <c r="G39" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="n">
+        <v>108686.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>203.3000030517578</v>
+      </c>
+      <c r="F40" t="n">
+        <v>47.279998779296875</v>
+      </c>
+      <c r="G40" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="n">
+        <v>109242.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>225.3000030517578</v>
+      </c>
+      <c r="F41" t="n">
+        <v>50.290000915527344</v>
+      </c>
+      <c r="G41" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="n">
+        <v>109761.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>225.72000122070312</v>
+      </c>
+      <c r="F42" t="n">
+        <v>52.0099983215332</v>
+      </c>
+      <c r="G42" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="n">
+        <v>110194.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>188.85000610351562</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42.060001373291016</v>
+      </c>
+      <c r="G43" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="n">
+        <v>110635.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>187.38999938964844</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42.29999923706055</v>
+      </c>
+      <c r="G44" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="n">
+        <v>111011.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>160.1699981689453</v>
+      </c>
+      <c r="F45" t="n">
+        <v>36.9900016784668</v>
+      </c>
+      <c r="G45" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="n">
+        <v>111431.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>184.0399932861328</v>
+      </c>
+      <c r="F46" t="n">
+        <v>41.08000183105469</v>
+      </c>
+      <c r="G46" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="n">
+        <v>111669.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>114.08999633789062</v>
+      </c>
+      <c r="F47" t="n">
+        <v>24.1200008392334</v>
+      </c>
+      <c r="G47" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="n">
+        <v>112133.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>212.8300018310547</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47.720001220703125</v>
+      </c>
+      <c r="G48" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="n">
+        <v>112512.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>197.94000244140625</v>
+      </c>
+      <c r="F49" t="n">
+        <v>46.13999938964844</v>
+      </c>
+      <c r="G49" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="n">
-        <v>111011.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>160.1699981689453</v>
-      </c>
-      <c r="F31" t="n">
-        <v>36.9900016784668</v>
-      </c>
-      <c r="G31" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="D50" t="n">
+        <v>112982.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>229.86000061035156</v>
+      </c>
+      <c r="F50" t="n">
+        <v>52.349998474121094</v>
+      </c>
+      <c r="G50" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="n">
+        <v>113451.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>219.6300048828125</v>
+      </c>
+      <c r="F51" t="n">
+        <v>41.06999969482422</v>
+      </c>
+      <c r="G51" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="n">
+        <v>113715.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="F52" t="n">
+        <v>30.6299991607666</v>
+      </c>
+      <c r="G52" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="n">
+        <v>114074.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>170.52000427246094</v>
+      </c>
+      <c r="F53" t="n">
+        <v>36.90999984741211</v>
+      </c>
+      <c r="G53" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="n">
+        <v>114528.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>225.82000732421875</v>
+      </c>
+      <c r="F54" t="n">
+        <v>49.849998474121094</v>
+      </c>
+      <c r="G54" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="n">
+        <v>114890.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>167.5800018310547</v>
+      </c>
+      <c r="F55" t="n">
+        <v>36.5099983215332</v>
+      </c>
+      <c r="G55" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="n">
+        <v>115338.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>236.61000061035156</v>
+      </c>
+      <c r="F56" t="n">
+        <v>51.54999923706055</v>
+      </c>
+      <c r="G56" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="n">
+        <v>115870.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>257.1499938964844</v>
+      </c>
+      <c r="F57" t="n">
+        <v>54.47999954223633</v>
+      </c>
+      <c r="G57" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" t="n">
+        <v>116423.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>266.2799987792969</v>
+      </c>
+      <c r="F58" t="n">
+        <v>55.36000061035156</v>
+      </c>
+      <c r="G58" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="n">
+        <v>116653.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>125.4000015258789</v>
+      </c>
+      <c r="F59" t="n">
+        <v>26.18000030517578</v>
+      </c>
+      <c r="G59" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="n">
+        <v>117143.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>270.7099914550781</v>
+      </c>
+      <c r="F60" t="n">
+        <v>50.619998931884766</v>
+      </c>
+      <c r="G60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="n">
+        <v>117625.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100.02999877929688</v>
+      </c>
+      <c r="F61" t="n">
+        <v>19.690000534057617</v>
+      </c>
+      <c r="G61" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" t="n">
+        <v>117697.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>213.77999877929688</v>
+      </c>
+      <c r="F62" t="n">
+        <v>44.630001068115234</v>
+      </c>
+      <c r="G62" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="n">
+        <v>118158.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>258.69000244140625</v>
+      </c>
+      <c r="F63" t="n">
+        <v>52.2599983215332</v>
+      </c>
+      <c r="G63" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="n">
+        <v>118350.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>146.3699951171875</v>
+      </c>
+      <c r="F64" t="n">
+        <v>54.81999969482422</v>
+      </c>
+      <c r="G64" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" t="n">
+        <v>118558.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>83.19999694824219</v>
+      </c>
+      <c r="F65" t="n">
+        <v>34.099998474121094</v>
+      </c>
+      <c r="G65" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" t="n">
+        <v>118680.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>43.900001525878906</v>
+      </c>
+      <c r="F66" t="n">
+        <v>17.079999923706055</v>
+      </c>
+      <c r="G66" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" t="n">
+        <v>119013.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>109.56999969482422</v>
+      </c>
+      <c r="F67" t="n">
+        <v>42.970001220703125</v>
+      </c>
+      <c r="G67" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" t="n">
+        <v>119448.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>136.6999969482422</v>
+      </c>
+      <c r="F68" t="n">
+        <v>54.040000915527344</v>
+      </c>
+      <c r="G68" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H68" t="s">
         <v>11</v>
       </c>
     </row>
